--- a/doc/docs/img/gpu_test.xlsx
+++ b/doc/docs/img/gpu_test.xlsx
@@ -1,101 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piaozhx/Library/Containers/com.microsoft.Excel/Data/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57C62E-BD03-4B46-80D7-982CB21D5A2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="460" windowWidth="37740" windowHeight="21140" xr2:uid="{67AE2AEC-B317-D84B-91F8-9FC06FA3F52A}"/>
+    <workbookView windowHeight="16920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>epoch time cost (smaller is better)</t>
+  </si>
+  <si>
+    <t>性能</t>
+  </si>
   <si>
     <t>M40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Titan XP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>K80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epoch time cost (smaller is better)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Titan Maxwell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Titan X (Pascal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Titan X (Maxwell)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -103,7 +72,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -112,20 +80,356 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -133,9 +437,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -143,37 +689,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -187,6 +777,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -200,7 +791,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="zh-CN" sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -212,7 +803,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -262,7 +852,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -274,9 +864,9 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -286,6 +876,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -340,34 +931,29 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.355153471001829</c:v>
+                  <c:v>13.3551534710018</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.574451753040039</c:v>
+                  <c:v>11.57445175304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.451379812453323</c:v>
+                  <c:v>10.4513798124533</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.270544762316316</c:v>
+                  <c:v>10.2705447623163</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6877633292036309</c:v>
+                  <c:v>7.68776332920363</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3494439773803988</c:v>
+                  <c:v>7.3494439773804</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0000000181819946</c:v>
+                  <c:v>1.00000001818199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D5FD-DB43-AC88-0CA664D3A6DD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -410,7 +996,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -422,7 +1008,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="102294496"/>
@@ -469,7 +1054,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -481,7 +1066,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143124736"/>
@@ -498,13 +1082,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -527,9 +1104,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1600" baseline="0"/>
+        <a:defRPr lang="zh-CN" sz="1600" baseline="0"/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1086,34 +1662,28 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>990600</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>1206500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261B9B1C-9F06-154C-A615-69AF0CC61AC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图表 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="8096250" y="2768600"/>
+        <a:ext cx="9826625" cy="5054600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1169,7 +1739,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1202,26 +1772,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1254,23 +1807,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1412,228 +1948,223 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDDEAD0-0020-5548-936A-F7817A43A588}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.1642857142857" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.8285714285714" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>25.551008319854699</v>
-      </c>
-      <c r="C2" s="1">
-        <f>1 / B2</f>
-        <v>3.913739870778167E-2</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>25.5510083198547</v>
+      </c>
+      <c r="C2" s="2">
+        <f>1/B2</f>
+        <v>0.0391373987077817</v>
+      </c>
+      <c r="D2" s="2">
         <f>C2/0.005325219</f>
-        <v>7.3494439773803988</v>
+        <v>7.3494439773804</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1080</v>
       </c>
-      <c r="B3" s="2">
-        <v>18.283908843994102</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C8" si="0">1 / B3</f>
-        <v>5.4692900108637331E-2</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="1">
+        <v>18.2839088439941</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C8" si="0">1/B3</f>
+        <v>0.0546929001086373</v>
+      </c>
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D8" si="1">C3/0.005325219</f>
-        <v>10.270544762316316</v>
+        <v>10.2705447623163</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>14.060916980107599</v>
-      </c>
-      <c r="C4" s="1">
-        <f>1 / B4</f>
-        <v>7.1119117011694891E-2</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14.0609169801076</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0711191170116949</v>
+      </c>
+      <c r="D4" s="2">
         <f t="shared" si="1"/>
-        <v>13.355153471001829</v>
+        <v>13.3551534710018</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>187.78570079803399</v>
-      </c>
-      <c r="C5" s="1">
-        <f>1 / B5</f>
-        <v>5.3252190968231033E-3</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>187.785700798034</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0053252190968231</v>
+      </c>
+      <c r="D5" s="2">
         <f t="shared" si="1"/>
-        <v>1.0000000181819946</v>
+        <v>1.00000001818199</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>24.426571965217502</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24.4265719652175</v>
+      </c>
+      <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>4.0939023348178429E-2</v>
-      </c>
-      <c r="D6" s="1">
+        <v>0.0409390233481784</v>
+      </c>
+      <c r="D6" s="2">
         <f t="shared" si="1"/>
-        <v>7.6877633292036309</v>
+        <v>7.68776332920363</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>16.224155426025298</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16.2241554260253</v>
+      </c>
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>6.1636490389872123E-2</v>
-      </c>
-      <c r="D7" s="1">
+        <v>0.0616364903898721</v>
+      </c>
+      <c r="D7" s="2">
         <f t="shared" si="1"/>
-        <v>11.574451753040039</v>
+        <v>11.57445175304</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>17.967551422119101</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="1">
+        <v>17.9675514221191</v>
+      </c>
+      <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>5.5655886353492875E-2</v>
-      </c>
-      <c r="D8" s="1">
+        <v>0.0556558863534929</v>
+      </c>
+      <c r="D8" s="2">
         <f t="shared" si="1"/>
-        <v>10.451379812453323</v>
+        <v>10.4513798124533</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4">
+        <v>13.3551534710018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B15" s="4">
+        <v>11.57445175304</v>
+      </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="4">
-        <v>13.355153471001829</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4">
-        <v>11.574451753040039</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>10.451379812453323</v>
+        <v>10.4513798124533</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>1080</v>
       </c>
       <c r="B17" s="4">
-        <v>10.270544762316316</v>
+        <v>10.2705447623163</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4">
-        <v>7.6877633292036309</v>
+        <v>7.68776332920363</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>0</v>
+      <c r="A19" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="B19" s="4">
-        <v>7.3494439773803988</v>
+        <v>7.3494439773804</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
+      <c r="A20" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B20" s="4">
-        <v>1.0000000181819946</v>
+        <v>1.00000001818199</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A14:B20">
-    <sortCondition descending="1" ref="B20"/>
+    <sortCondition ref="B20" descending="1"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/docs/img/gpu_test.xlsx
+++ b/doc/docs/img/gpu_test.xlsx
@@ -1,70 +1,101 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/piaozhx/Library/Containers/com.microsoft.Excel/Data/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B57C62E-BD03-4B46-80D7-982CB21D5A2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16920"/>
+    <workbookView xWindow="660" yWindow="460" windowWidth="37740" windowHeight="21140" xr2:uid="{67AE2AEC-B317-D84B-91F8-9FC06FA3F52A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="179021" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+  <si>
+    <t>M40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titan XP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>GPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>epoch time cost (smaller is better)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Titan Maxwell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性能</t>
-  </si>
-  <si>
-    <t>M40</t>
-  </si>
-  <si>
-    <t>Titan XP</t>
-  </si>
-  <si>
-    <t>K80</t>
-  </si>
-  <si>
-    <t>Titan Maxwell</t>
-  </si>
-  <si>
-    <t>P40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>P100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Titan X (Pascal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Titan X (Maxwell)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -72,6 +103,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -80,356 +112,20 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -437,251 +133,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -689,81 +143,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -777,7 +187,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -791,7 +200,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="zh-CN" sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1920" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -803,6 +212,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -852,7 +262,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -864,9 +274,9 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -876,7 +286,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -931,29 +340,34 @@
                 <c:formatCode>0.00_ </c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>13.3551534710018</c:v>
+                  <c:v>13.355153471001829</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.57445175304</c:v>
+                  <c:v>11.574451753040039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.4513798124533</c:v>
+                  <c:v>10.451379812453323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.2705447623163</c:v>
+                  <c:v>10.270544762316316</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.68776332920363</c:v>
+                  <c:v>7.6877633292036309</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3494439773804</c:v>
+                  <c:v>7.3494439773803988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.00000001818199</c:v>
+                  <c:v>1.0000000181819946</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D5FD-DB43-AC88-0CA664D3A6DD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -996,7 +410,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1008,6 +422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="102294496"/>
@@ -1054,7 +469,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="zh-CN" sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1066,6 +481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="143124736"/>
@@ -1082,6 +498,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1104,8 +527,9 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="zh-CN" sz="1600" baseline="0"/>
+        <a:defRPr sz="1600" baseline="0"/>
       </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1662,28 +1086,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1206500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261B9B1C-9F06-154C-A615-69AF0CC61AC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8096250" y="2768600"/>
-        <a:ext cx="9826625" cy="5054600"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1739,7 +1169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1772,9 +1202,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1807,6 +1254,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1948,223 +1412,228 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BDDEAD0-0020-5548-936A-F7817A43A588}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1642857142857" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="10.8285714285714" style="2"/>
+    <col min="1" max="1" width="31.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>25.5510083198547</v>
-      </c>
-      <c r="C2" s="2">
-        <f>1/B2</f>
-        <v>0.0391373987077817</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25.551008319854699</v>
+      </c>
+      <c r="C2" s="1">
+        <f>1 / B2</f>
+        <v>3.913739870778167E-2</v>
+      </c>
+      <c r="D2" s="1">
         <f>C2/0.005325219</f>
-        <v>7.3494439773804</v>
+        <v>7.3494439773803988</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1080</v>
       </c>
-      <c r="B3" s="1">
-        <v>18.2839088439941</v>
-      </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C8" si="0">1/B3</f>
-        <v>0.0546929001086373</v>
-      </c>
-      <c r="D3" s="2">
+      <c r="B3" s="2">
+        <v>18.283908843994102</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C8" si="0">1 / B3</f>
+        <v>5.4692900108637331E-2</v>
+      </c>
+      <c r="D3" s="1">
         <f t="shared" ref="D3:D8" si="1">C3/0.005325219</f>
-        <v>10.2705447623163</v>
+        <v>10.270544762316316</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14.0609169801076</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.0711191170116949</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>14.060916980107599</v>
+      </c>
+      <c r="C4" s="1">
+        <f>1 / B4</f>
+        <v>7.1119117011694891E-2</v>
+      </c>
+      <c r="D4" s="1">
         <f t="shared" si="1"/>
-        <v>13.3551534710018</v>
+        <v>13.355153471001829</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>187.785700798034</v>
-      </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.0053252190968231</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>187.78570079803399</v>
+      </c>
+      <c r="C5" s="1">
+        <f>1 / B5</f>
+        <v>5.3252190968231033E-3</v>
+      </c>
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>1.00000001818199</v>
+        <v>1.0000000181819946</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>24.4265719652175</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>24.426571965217502</v>
+      </c>
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.0409390233481784</v>
-      </c>
-      <c r="D6" s="2">
+        <v>4.0939023348178429E-2</v>
+      </c>
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>7.68776332920363</v>
+        <v>7.6877633292036309</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>16.2241554260253</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16.224155426025298</v>
+      </c>
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.0616364903898721</v>
-      </c>
-      <c r="D7" s="2">
+        <v>6.1636490389872123E-2</v>
+      </c>
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>11.57445175304</v>
+        <v>11.574451753040039</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>17.9675514221191</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="2">
+        <v>17.967551422119101</v>
+      </c>
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.0556558863534929</v>
-      </c>
-      <c r="D8" s="2">
+        <v>5.5655886353492875E-2</v>
+      </c>
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>10.4513798124533</v>
+        <v>10.451379812453323</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="4">
-        <v>13.3551534710018</v>
+        <v>13.355153471001829</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B15" s="4">
-        <v>11.57445175304</v>
+        <v>11.574451753040039</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B16" s="4">
-        <v>10.4513798124533</v>
+        <v>10.451379812453323</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>1080</v>
       </c>
       <c r="B17" s="4">
-        <v>10.2705447623163</v>
+        <v>10.270544762316316</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B18" s="4">
-        <v>7.68776332920363</v>
+        <v>7.6877633292036309</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
+      <c r="A19" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="B19" s="4">
-        <v>7.3494439773804</v>
+        <v>7.3494439773803988</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
+      <c r="A20" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="B20" s="4">
-        <v>1.00000001818199</v>
+        <v>1.0000000181819946</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A14:B20">
-    <sortCondition ref="B20" descending="1"/>
+    <sortCondition descending="1" ref="B20"/>
   </sortState>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>